--- a/public/import_stocks.xlsx
+++ b/public/import_stocks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/public/import_stocks.xlsx
+++ b/public/import_stocks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="545">
   <si>
     <t>Gigabytes Motherboard w/ CORE i3 /2GB DDr3 Memory (H61M)</t>
   </si>
@@ -403,9 +403,6 @@
     <t>DVD RW Drive</t>
   </si>
   <si>
-    <t>500Watts Generic</t>
-  </si>
-  <si>
     <t>PS2 Optical Mouse (A4tech)</t>
   </si>
   <si>
@@ -814,12 +811,6 @@
     <t>Datalogic Scanner (VS2200)-Serial</t>
   </si>
   <si>
-    <t>deleted</t>
-  </si>
-  <si>
-    <t>DELETED-Epson Tmu-220B</t>
-  </si>
-  <si>
     <t>E18 Motherboard w/ Processor &amp; 1GB Memory</t>
   </si>
   <si>
@@ -1658,13 +1649,25 @@
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AVR 500Watts Generic</t>
+  </si>
+  <si>
+    <t>Windows 10 Home Single Language</t>
+  </si>
+  <si>
+    <t>Windows 11 Home Single Language</t>
+  </si>
+  <si>
+    <t>TEST ITEM 05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,6 +1825,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2006,7 +2015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2136,6 +2145,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2182,7 +2202,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -2198,6 +2218,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2329,10 +2351,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A536" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A536"/>
-  <sortState ref="A2:A536">
-    <sortCondition ref="A1:A536"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A537" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A537"/>
+  <sortState ref="A2:A537">
+    <sortCondition ref="A1:A537"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" name="ITEM DESCRIPTION" dataDxfId="0"/>
@@ -2654,22 +2676,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2699,54 +2721,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A536"/>
+  <dimension ref="A1:A537"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -2756,52 +2778,52 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -2816,17 +2838,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -2836,7 +2858,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -2861,12 +2883,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2876,7 +2898,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -2896,7 +2918,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
@@ -2906,32 +2928,32 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
@@ -2941,7 +2963,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -2951,7 +2973,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
@@ -2966,7 +2988,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
@@ -2976,7 +2998,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -2996,7 +3018,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -3016,12 +3038,12 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
@@ -3031,12 +3053,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -3046,22 +3068,22 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -3071,7 +3093,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -3091,12 +3113,12 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -3106,12 +3128,12 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -3136,17 +3158,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
@@ -3166,12 +3188,12 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -3226,17 +3248,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -3266,22 +3288,22 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
@@ -3291,12 +3313,12 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
@@ -3331,22 +3353,22 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -3361,12 +3383,12 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>228</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
@@ -3386,17 +3408,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
@@ -3481,12 +3503,12 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>249</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
@@ -3501,12 +3523,12 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
@@ -3526,12 +3548,12 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
@@ -3546,7 +3568,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
@@ -3561,7 +3583,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
@@ -3571,92 +3593,92 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>262</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -3671,412 +3693,412 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>73</v>
+        <v>308</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>67</v>
+        <v>312</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>318</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
@@ -4086,72 +4108,72 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>130</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>72</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
@@ -4161,17 +4183,17 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
@@ -4181,67 +4203,67 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
@@ -4255,1142 +4277,1147 @@
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="4" t="s">
-        <v>373</v>
+      <c r="A310" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>1</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>391</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>392</v>
+        <v>92</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>76</v>
+        <v>391</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>394</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>395</v>
+        <v>45</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>396</v>
+        <v>63</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>397</v>
+        <v>70</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
-        <v>70</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>113</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>419</v>
+        <v>18</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>120</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>420</v>
+        <v>31</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
-        <v>421</v>
+        <v>80</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
-        <v>79</v>
+        <v>419</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
-        <v>422</v>
+        <v>82</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
-        <v>86</v>
+        <v>422</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
-        <v>424</v>
+        <v>84</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
-        <v>425</v>
+        <v>85</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
-        <v>84</v>
+        <v>423</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
-        <v>85</v>
+        <v>424</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
-        <v>435</v>
+        <v>14</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>13</v>
+        <v>436</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
-        <v>440</v>
+        <v>125</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
-        <v>126</v>
+        <v>440</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
-        <v>451</v>
+        <v>71</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
-        <v>452</v>
+        <v>131</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
-        <v>71</v>
+        <v>450</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
-        <v>132</v>
+        <v>451</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
-        <v>469</v>
+        <v>132</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
-        <v>133</v>
+        <v>468</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
-        <v>471</v>
+        <v>130</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
-        <v>131</v>
+        <v>469</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
-        <v>470</v>
+        <v>122</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
-        <v>78</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
-        <v>485</v>
+        <v>52</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
-        <v>52</v>
+        <v>483</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
-        <v>486</v>
+        <v>37</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
-        <v>37</v>
+        <v>484</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
-        <v>487</v>
+        <v>53</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
-        <v>69</v>
+        <v>485</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
-        <v>488</v>
+        <v>118</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
-        <v>118</v>
+        <v>486</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
-        <v>494</v>
+        <v>134</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
-        <v>135</v>
+        <v>492</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
-        <v>499</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
-        <v>15</v>
+        <v>497</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
-        <v>500</v>
+        <v>126</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
-        <v>502</v>
+        <v>123</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
-        <v>123</v>
+        <v>500</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
-        <v>504</v>
+        <v>88</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
-        <v>88</v>
+        <v>502</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
-        <v>507</v>
+        <v>46</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
-        <v>46</v>
+        <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
-        <v>523</v>
+        <v>47</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
-        <v>47</v>
+        <v>521</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
-        <v>528</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
-        <v>20</v>
+        <v>526</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
-        <v>68</v>
+        <v>528</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
-        <v>532</v>
+        <v>68</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="10" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z7Hw1WOSp+ewv5PsSmmJFEncA4eVwupLmDdLPnDgdImI31hqDilXnZ6PoDjtXESSAHA7QcSP+5mCG/0LX/RvhA==" saltValue="Jpgu7xRssz12s5bqQlpysQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vX4Y0mO6jlTWtVyrUXYO01hhtF9zFILJ4m6xCq2O71ewt2wnyUxjNN0x5Mgo7pkMNatnxynjq6OhlRbJJXzryw==" saltValue="ZhOyhOcU45817uLTv9EVRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5412,37 +5439,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
